--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D8097-4A14-457B-A343-C5C47F39614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D57C04-F9F3-4E4B-979B-684B488BD63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="-15240" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-11025" yWindow="-15630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="AoEC Files" sheetId="2" r:id="rId2"/>
-    <sheet name="Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId3"/>
-    <sheet name="Tab Products" sheetId="4" r:id="rId4"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget" sheetId="6" r:id="rId2"/>
+    <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
+    <sheet name="Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tab Products" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -288,14 +290,42 @@
   </si>
   <si>
     <t>Tab PRODUCT_COUNTRY_COUNTRY_HS92</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>MBASUL200113</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>CreaDt</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>[$]</t>
+  </si>
+  <si>
+    <t>MBASUL250121</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -378,13 +408,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,6 +445,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,7 +802,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +917,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45678.63958333333</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45678.63958333333</v>
+      </c>
+      <c r="D8" s="22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45680.461111111108</v>
+      </c>
+      <c r="D9" s="22">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -879,16 +1017,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="57.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="10"/>
-    <col min="4" max="4" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="11"/>
+    <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -903,15 +1041,15 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -924,10 +1062,10 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>189.1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>45678.459027777775</v>
       </c>
     </row>
@@ -975,11 +1113,11 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <f>1400*1024</f>
         <v>1433600</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>45678.460416666669</v>
       </c>
     </row>
@@ -990,10 +1128,10 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1004,7 +1142,7 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1015,7 +1153,7 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1026,10 +1164,10 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>0.375</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1040,10 +1178,10 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1054,7 +1192,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1065,7 +1203,7 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <v>45678.463194444441</v>
       </c>
     </row>
@@ -1077,156 +1215,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0074CE0F-5763-4BFB-8F01-2031117045EC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="34.85546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="11"/>
-    <col min="4" max="4" width="46" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="2" max="2" width="34.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="46" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="F5" s="12" t="str">
+        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
+        <v>PARTNER_COUNTRY_ID      integer,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="12" t="str">
+        <f t="shared" ref="F6:F13" si="0">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>YEAR      integer,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPORT_VALUE      integer,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>IMPORT_VALUE      integer,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="F10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>ECI      float,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>COI      float,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PCI      float,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1235,12 +1405,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B970C6DB-62A5-4BF7-B63C-7F9B7FDA8289}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,19 +1430,21 @@
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1273,129 +1457,180 @@
       <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="13"/>
+      <c r="E6" t="str">
+        <f>A6&amp;"      "&amp;LOWER(C6)&amp;","</f>
+        <v>product_id      integer,</v>
+      </c>
+      <c r="F6" t="str">
+        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="13"/>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E11" si="0">A7&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>code      string,</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F11" si="1">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>CODE      string,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>name_short_en      string,</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>NAME_SHORT_EN      string,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>product_level      integer,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>PRODUCT_LEVEL      integer,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="13"/>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>top_parent_id      integer,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>TOP_PARENT_ID      integer,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>product_id_hierarchy      string,</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>PRODUCT_ID_HIERARCHY      string,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1403,13 +1638,13 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1417,13 +1652,13 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D57C04-F9F3-4E4B-979B-684B488BD63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B3F33-5CB4-40D9-A576-DD8A15F531FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11025" yWindow="-15630" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
     <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
     <sheet name="Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
-    <sheet name="Tab Products" sheetId="4" r:id="rId6"/>
+    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId5"/>
+    <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Balzer, Matthias</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{127E4419-F2B9-4ADF-B51B-239112780E5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Balzer, Matthias:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Robert Dunst]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -317,6 +351,48 @@
   </si>
   <si>
     <t>MBASUL250121</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>[#d]</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Produktvergleiche</t>
+  </si>
+  <si>
+    <t>Eigenschaft</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Databricks</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>Datasphere</t>
+  </si>
+  <si>
+    <t>Upload von Dateien</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>001.01</t>
+  </si>
+  <si>
+    <t>Maximale Dateigröße</t>
+  </si>
+  <si>
+    <t>200 MB</t>
   </si>
 </sst>
 </file>
@@ -327,7 +403,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,13 +462,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -408,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -464,6 +559,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -918,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,12 +1035,12 @@
     <col min="4" max="4" width="15.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
@@ -946,8 +1049,11 @@
         <v>84</v>
       </c>
       <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
@@ -960,40 +1066,360 @@
       <c r="D4" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="21"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="25">
-        <v>45678.63958333333</v>
-      </c>
-      <c r="C8" s="6">
-        <v>45678.63958333333</v>
-      </c>
-      <c r="D8" s="22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45684.762499999997</v>
+      </c>
+      <c r="D7" s="22">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>91</v>
       </c>
+      <c r="B9" s="25">
+        <v>45678.63958333333</v>
+      </c>
       <c r="C9" s="6">
+        <v>45678.63958333333</v>
+      </c>
+      <c r="D9" s="22">
+        <v>400</v>
+      </c>
+      <c r="E9" s="27" t="str">
+        <f>IF(AND(ISNUMBER(C8), ISNUMBER(C9)), DAY(C9)-DAY(C8), "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="27" t="str">
+        <f>IF(AND(ISNUMBER(D8), ISNUMBER(D9)), (D9-D8), "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="27" t="str">
+        <f>IF(AND(ISNUMBER(E9), ISNUMBER(F9), E9&lt;&gt;0), F9/E9, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6">
         <v>45680.461111111108</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D10" s="22">
         <v>394</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" ref="E10:E28" si="0">IF(AND(ISNUMBER(C9), ISNUMBER(C10)), DAY(C10)-DAY(C9), "")</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ref="F10:F28" si="1">IF(AND(ISNUMBER(D9), ISNUMBER(D10)), (D10-D9), "")</f>
+        <v>-6</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" ref="G10:G28" si="2">IF(AND(ISNUMBER(E10), ISNUMBER(F10), E10&lt;&gt;0), F10/E10, "")</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45684.763194444444</v>
+      </c>
+      <c r="D11" s="22">
+        <v>382</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="27">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45684.832638888889</v>
+      </c>
+      <c r="D12" s="22">
+        <v>382</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45685.386805555558</v>
+      </c>
+      <c r="D13" s="22">
+        <v>376</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1217,15 +1643,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0074CE0F-5763-4BFB-8F01-2031117045EC}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="22.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="12"/>
     <col min="4" max="4" width="46" style="14" customWidth="1"/>
@@ -1251,27 +1677,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="12" t="str">
-        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
-        <v>PARTNER_COUNTRY_ID      integer,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>65</v>
@@ -1280,103 +1695,103 @@
         <v>32</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F6" s="12" t="str">
-        <f t="shared" ref="F6:F13" si="0">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+        <f>UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>PARTNER_COUNTRY_ID      integer,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>YEAR      integer,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F7:F14" si="0">UPPER(A8)&amp;"      "&amp;LOWER(C8)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>EXPORT_VALUE      integer,</v>
+        <v>YEAR      integer,</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="D9" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>IMPORT_VALUE      integer,</v>
+        <v>EXPORT_VALUE      integer,</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
+        <v>IMPORT_VALUE      integer,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>ECI      float,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>COI      float,</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>55</v>
@@ -1386,17 +1801,35 @@
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
+        <v>COI      float,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>PCI      float,</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1406,23 +1839,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B970C6DB-62A5-4BF7-B63C-7F9B7FDA8289}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE676B-1D24-4249-BF84-885166B1803C}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,17 +1915,17 @@
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1461,7 +1942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1480,8 +1961,12 @@
         <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
         <v>PRODUCT_ID      integer,</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>"StructField('"&amp;LOWER(A6)&amp;"', "&amp;PROPER(C6)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('product_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1500,8 +1985,12 @@
         <f t="shared" ref="F7:F11" si="1">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
         <v>CODE      string,</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G11" si="2">"StructField('"&amp;LOWER(A7)&amp;"', "&amp;PROPER(C7)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('code', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1522,8 +2011,12 @@
         <f t="shared" si="1"/>
         <v>NAME_SHORT_EN      string,</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('name_short_en', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1544,8 +2037,12 @@
         <f t="shared" si="1"/>
         <v>PRODUCT_LEVEL      integer,</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('product_level', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1564,8 +2061,12 @@
         <f t="shared" si="1"/>
         <v>TOP_PARENT_ID      integer,</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1584,19 +2085,23 @@
         <f t="shared" si="1"/>
         <v>PRODUCT_ID_HIERARCHY      string,</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="18"/>
       <c r="D13" s="18"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1608,7 +2113,7 @@
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +2125,7 @@
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B3F33-5CB4-40D9-A576-DD8A15F531FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB2AAE-5E73-49C7-9C6C-BB2588A8274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Dokument</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>[MB]</t>
   </si>
   <si>
@@ -393,17 +390,73 @@
   </si>
   <si>
     <t>200 MB</t>
+  </si>
+  <si>
+    <t>Size LP36131</t>
+  </si>
+  <si>
+    <t>Size SN Stage</t>
+  </si>
+  <si>
+    <t>[Bytes]</t>
+  </si>
+  <si>
+    <r>
+      <t>hs92_country_country_product_year_1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>csv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hs92_country_country_product_year_6_1995_1999.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Kompression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +476,21 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -499,19 +567,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,15 +589,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,22 +606,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,16 +626,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,400 +1094,409 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6">
         <v>45684.762499999997</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="25">
+        <v>90</v>
+      </c>
+      <c r="B9" s="24">
         <v>45678.63958333333</v>
       </c>
       <c r="C9" s="6">
         <v>45678.63958333333</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>400</v>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="26" t="str">
         <f>IF(AND(ISNUMBER(C8), ISNUMBER(C9)), DAY(C9)-DAY(C8), "")</f>
         <v/>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(AND(ISNUMBER(D8), ISNUMBER(D9)), (D9-D8), "")</f>
         <v/>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="26" t="str">
         <f>IF(AND(ISNUMBER(E9), ISNUMBER(F9), E9&lt;&gt;0), F9/E9, "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="6">
         <v>45680.461111111108</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>394</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" ref="E10:E28" si="0">IF(AND(ISNUMBER(C9), ISNUMBER(C10)), DAY(C10)-DAY(C9), "")</f>
         <v>2</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f t="shared" ref="F10:F28" si="1">IF(AND(ISNUMBER(D9), ISNUMBER(D10)), (D10-D9), "")</f>
         <v>-6</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" ref="G10:G28" si="2">IF(AND(ISNUMBER(E10), ISNUMBER(F10), E10&lt;&gt;0), F10/E10, "")</f>
         <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6">
         <v>45684.763194444444</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>382</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="26">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>45684.832638888889</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>382</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="6">
         <v>45685.386805555558</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>376</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="27" t="str">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45685.743750000001</v>
+      </c>
+      <c r="D14" s="21">
+        <v>371</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="27" t="str">
+        <v>-5</v>
+      </c>
+      <c r="G14" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="27" t="str">
+      <c r="E15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="27" t="str">
+      <c r="E16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="27" t="str">
+      <c r="E17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G17" s="27" t="str">
+      <c r="G17" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="27" t="str">
+      <c r="E18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="27" t="str">
+      <c r="E19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="27" t="str">
+      <c r="E20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="27" t="str">
+      <c r="E21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="27" t="str">
+      <c r="E22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="27" t="str">
+      <c r="E23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="27" t="str">
+      <c r="G23" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="27" t="str">
+      <c r="E24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="27" t="str">
+      <c r="E25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="27" t="str">
+      <c r="E26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="27" t="str">
+      <c r="E27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="27" t="str">
+      <c r="E28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="27" t="str">
+      <c r="G28" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1433,11 +1512,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,192 +1524,340 @@
     <col min="1" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="11"/>
     <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11">
-        <v>189.1</v>
+        <f>198244636/(1024*1024)</f>
+        <v>189.06081771850586</v>
       </c>
       <c r="D7" s="9">
         <v>45678.459027777775</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" s="30">
+        <f>F7/(1024*1024)</f>
+        <v>53.288797378540039</v>
+      </c>
+      <c r="F7">
+        <v>55877354</v>
+      </c>
+      <c r="G7" s="31">
+        <f>IF(AND(ISNUMBER(C7),ISNUMBER(F7)), (1-E7/C7), "")</f>
+        <v>0.71813939016236483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="11">
+        <f>336702364/(1024*1024)</f>
+        <v>321.10439682006836</v>
+      </c>
+      <c r="D8" s="9">
+        <v>45678.459027777775</v>
+      </c>
+      <c r="E8" s="30">
+        <f>F8/(1024*1024)</f>
+        <v>64.618553161621094</v>
+      </c>
+      <c r="F8">
+        <v>67757464</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" ref="G8:G27" si="0">IF(AND(ISNUMBER(C8),ISNUMBER(F8)), (1-E8/C8), "")</f>
+        <v>0.79876154359284512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G12" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="G14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="G15" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11">
-        <f>1400*1024</f>
-        <v>1433600</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="G16" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9">
         <v>45678.460416666669</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="30">
+        <f>F17/(1024*1024)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="C18" s="11">
+        <f>2599515729/(1024*1024)</f>
+        <v>2479.0913858413696</v>
+      </c>
+      <c r="D18" s="9">
+        <v>45678.460416666669</v>
+      </c>
+      <c r="E18" s="30">
+        <f>F18/(1024*1024)</f>
+        <v>401.89046764373779</v>
+      </c>
+      <c r="F18">
+        <v>421412699</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>0.83788799802257319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11">
         <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D18" s="9">
-        <v>45678.463194444441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9">
-        <v>45678.463194444441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
       </c>
       <c r="D20" s="9">
         <v>45678.463194444441</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.375</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9">
         <v>45678.463194444441</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.36499999999999999</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9">
         <v>45678.463194444441</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.375</v>
       </c>
       <c r="D23" s="9">
         <v>45678.463194444441</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.36499999999999999</v>
       </c>
       <c r="D24" s="9">
         <v>45678.463194444441</v>
+      </c>
+      <c r="G24" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9">
+        <v>45678.463194444441</v>
+      </c>
+      <c r="G25" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="9">
+        <v>45678.463194444441</v>
+      </c>
+      <c r="G26" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1660,42 +1887,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="D5" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
@@ -1704,34 +1931,34 @@
     </row>
     <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="12" t="str">
-        <f t="shared" ref="F7:F14" si="0">UPPER(A8)&amp;"      "&amp;LOWER(C8)&amp;","</f>
+        <f t="shared" ref="F7:F13" si="0">UPPER(A8)&amp;"      "&amp;LOWER(C8)&amp;","</f>
         <v>PRODUCT_ID      integer,</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1740,16 +1967,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1758,13 +1985,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1773,13 +2000,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1788,16 +2015,16 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1806,16 +2033,16 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1824,13 +2051,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1842,54 +2069,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE676B-1D24-4249-BF84-885166B1803C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="30"/>
+    <col min="1" max="1" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="F4" t="s">
         <v>96</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>99</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
         <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1917,40 +2144,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" t="str">
@@ -1968,13 +2195,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" t="str">
@@ -1992,16 +2219,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -2018,16 +2245,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -2044,13 +2271,13 @@
     </row>
     <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" t="str">
@@ -2068,13 +2295,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" t="str">
@@ -2096,72 +2323,72 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="13"/>
     </row>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB2AAE-5E73-49C7-9C6C-BB2588A8274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577793F-6332-46A0-B346-41EEED374E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
     <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
-    <sheet name="Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
+    <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
     <sheet name="Prod.vergleiche" sheetId="7" r:id="rId5"/>
     <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>product_sitc.csv</t>
-  </si>
-  <si>
-    <t>Tab PRODUCT_HS92</t>
   </si>
   <si>
     <t>Integer</t>
@@ -445,6 +442,9 @@
   <si>
     <t>Kompression</t>
   </si>
+  <si>
+    <t>Tab PRODUCT</t>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +456,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +543,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -572,7 +581,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -636,6 +645,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1094,7 +1104,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,40 +1117,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,12 +1160,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="6">
         <v>45684.762499999997</v>
@@ -1166,7 +1176,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="24">
         <v>45678.63958333333</v>
@@ -1192,7 +1202,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6">
         <v>45680.461111111108</v>
@@ -1215,7 +1225,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="6">
         <v>45684.763194444444</v>
@@ -1238,7 +1248,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="6">
         <v>45684.832638888889</v>
@@ -1261,7 +1271,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6">
         <v>45685.386805555558</v>
@@ -1284,7 +1294,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="6">
         <v>45685.743750000001</v>
@@ -1306,13 +1316,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="26" t="str">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45685.819444444445</v>
+      </c>
+      <c r="D15" s="21">
+        <v>362</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-9</v>
       </c>
       <c r="G15" s="26" t="str">
         <f t="shared" si="2"/>
@@ -1320,48 +1339,75 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="26" t="str">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45686.387499999997</v>
+      </c>
+      <c r="D16" s="21">
+        <v>356</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="26" t="str">
+        <v>-6</v>
+      </c>
+      <c r="G16" s="26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="26" t="str">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45686.461111111108</v>
+      </c>
+      <c r="D17" s="21">
+        <v>356</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G17" s="26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="26" t="str">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45687.503472222219</v>
+      </c>
+      <c r="D18" s="21">
+        <v>346</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="26" t="str">
+        <v>-10</v>
+      </c>
+      <c r="G18" s="26">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1375,7 +1421,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1389,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1403,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1417,7 +1463,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1431,7 +1477,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1445,7 +1491,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1459,7 +1505,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1473,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1487,7 +1533,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1514,9 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,13 +1595,13 @@
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1566,10 +1612,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,7 +1648,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11">
         <f>336702364/(1024*1024)</f>
@@ -1713,7 +1759,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="11">
         <f>2599515729/(1024*1024)</f>
@@ -1873,7 +1919,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,42 +1933,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="27"/>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
@@ -1931,16 +1977,16 @@
     </row>
     <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12" t="str">
         <f t="shared" ref="F7:F13" si="0">UPPER(A8)&amp;"      "&amp;LOWER(C8)&amp;","</f>
@@ -1949,16 +1995,16 @@
     </row>
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1967,16 +2013,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1985,13 +2031,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2000,13 +2046,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2015,16 +2061,16 @@
     </row>
     <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2033,16 +2079,16 @@
     </row>
     <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="F13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2051,13 +2097,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2080,43 +2126,43 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
         <v>95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>96</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>97</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>98</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
         <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2127,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,42 +2188,42 @@
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" t="str">
@@ -2195,13 +2241,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" t="str">
@@ -2219,16 +2265,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -2245,16 +2291,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -2271,13 +2317,13 @@
     </row>
     <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" t="str">
@@ -2295,13 +2341,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" t="str">
@@ -2323,74 +2369,157 @@
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="18"/>
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="13"/>
+      <c r="E14" t="str">
+        <f>A14&amp;"      "&amp;LOWER(C14)&amp;","</f>
+        <v>product_id      integer,</v>
+      </c>
+      <c r="F14" t="str">
+        <f>UPPER(A14)&amp;"      "&amp;LOWER(C14)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"StructField('"&amp;LOWER(A14)&amp;"', "&amp;PROPER(C14)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('product_id', IntegerType(), nullable=True),</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="13"/>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E19" si="3">A15&amp;"      "&amp;LOWER(C15)&amp;","</f>
+        <v>code      string,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F19" si="4">UPPER(A15)&amp;"      "&amp;LOWER(C15)&amp;","</f>
+        <v>CODE      string,</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G19" si="5">"StructField('"&amp;LOWER(A15)&amp;"', "&amp;PROPER(C15)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('code', StringType(), nullable=True),</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>name_short_en      string,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>NAME_SHORT_EN      string,</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('name_short_en', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>product_ level      integer,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>PRODUCT_ LEVEL      integer,</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('product_ level', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>top_parent_id      integer,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>TOP_PARENT_ID      integer,</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>product_id_hierarchy      string,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>PRODUCT_ID_HIERARCHY      string,</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577793F-6332-46A0-B346-41EEED374E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2BF5A-D460-4789-832F-9D84E6DB165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
     <sheet name="Prod.vergleiche" sheetId="7" r:id="rId5"/>
     <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId6"/>
+    <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="111">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -2175,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2524,4 +2525,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0683C5D2-D6F6-4730-A866-0DB40C1E9CA5}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" t="str">
+        <f>A6&amp;"      "&amp;LOWER(C6)&amp;","</f>
+        <v>product_id      integer,</v>
+      </c>
+      <c r="F6" t="str">
+        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"StructField('"&amp;LOWER(A6)&amp;"', "&amp;PROPER(C6)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('product_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E11" si="0">A7&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>code      string,</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F11" si="1">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
+        <v>CODE      string,</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G11" si="2">"StructField('"&amp;LOWER(A7)&amp;"', "&amp;PROPER(C7)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('code', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>name_short_en      string,</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>NAME_SHORT_EN      string,</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('name_short_en', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>product_level      integer,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>PRODUCT_LEVEL      integer,</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('product_level', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>top_parent_id      integer,</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>TOP_PARENT_ID      integer,</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>product_id_hierarchy      string,</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>PRODUCT_ID_HIERARCHY      string,</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" t="str">
+        <f>A14&amp;"      "&amp;LOWER(C14)&amp;","</f>
+        <v>product_id      integer,</v>
+      </c>
+      <c r="F14" t="str">
+        <f>UPPER(A14)&amp;"      "&amp;LOWER(C14)&amp;","</f>
+        <v>PRODUCT_ID      integer,</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"StructField('"&amp;LOWER(A14)&amp;"', "&amp;PROPER(C14)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('product_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E19" si="3">A15&amp;"      "&amp;LOWER(C15)&amp;","</f>
+        <v>code      string,</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" ref="F15:F19" si="4">UPPER(A15)&amp;"      "&amp;LOWER(C15)&amp;","</f>
+        <v>CODE      string,</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G19" si="5">"StructField('"&amp;LOWER(A15)&amp;"', "&amp;PROPER(C15)&amp;"Type(), nullable=True),"</f>
+        <v>StructField('code', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>name_short_en      string,</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>NAME_SHORT_EN      string,</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('name_short_en', StringType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>product_ level      integer,</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>PRODUCT_ LEVEL      integer,</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('product_ level', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>top_parent_id      integer,</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>TOP_PARENT_ID      integer,</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>product_id_hierarchy      string,</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>PRODUCT_ID_HIERARCHY      string,</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="5"/>
+        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B2BF5A-D460-4789-832F-9D84E6DB165D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD69D1D-8DF0-4CEF-A272-50A4BF0501F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -643,10 +643,10 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,14 +1122,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="17" t="s">
         <v>90</v>
       </c>
@@ -1409,31 +1409,49 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="26" t="str">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45693.609722222223</v>
+      </c>
+      <c r="D19" s="21">
+        <v>345</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="F19" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="26" t="str">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="26" t="str">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45694.333333333336</v>
+      </c>
+      <c r="D20" s="21">
+        <v>337</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="26" t="str">
+        <v>-8</v>
+      </c>
+      <c r="G20" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,7 +2208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2531,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0683C5D2-D6F6-4730-A866-0DB40C1E9CA5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2563,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>110</v>
       </c>
     </row>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD69D1D-8DF0-4CEF-A272-50A4BF0501F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFECA351-9957-45F2-99B5-C4168D3C2085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1455,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="26" t="str">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45694.72152777778</v>
+      </c>
+      <c r="D21" s="21">
+        <v>329</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-8</v>
       </c>
       <c r="G21" s="26" t="str">
         <f t="shared" si="2"/>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFECA351-9957-45F2-99B5-C4168D3C2085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112AD97-14D2-460E-9598-49957DB2A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView minimized="1" xWindow="6105" yWindow="3270" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Prod.vergleiche" sheetId="7" r:id="rId5"/>
     <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId6"/>
     <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId7"/>
+    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -446,6 +447,93 @@
   <si>
     <t>Tab PRODUCT</t>
   </si>
+  <si>
+    <t>PARTNER_COUNTRY_ID'</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>'COG'</t>
+  </si>
+  <si>
+    <t>'COI'</t>
+  </si>
+  <si>
+    <t>'COUNTRY_ID'</t>
+  </si>
+  <si>
+    <t>'DISTANCE'</t>
+  </si>
+  <si>
+    <t>'ECI'</t>
+  </si>
+  <si>
+    <t>'EXPORT_RCA'</t>
+  </si>
+  <si>
+    <t>'EXPORT_VALUE'</t>
+  </si>
+  <si>
+    <t>'GLOBAL_MARKET_SHARE'</t>
+  </si>
+  <si>
+    <t>'ID'</t>
+  </si>
+  <si>
+    <t>'IMPORT_VALUE'</t>
+  </si>
+  <si>
+    <t>'NORMALIZED_COG'</t>
+  </si>
+  <si>
+    <t>'NORMALIZED_DISTANCE'</t>
+  </si>
+  <si>
+    <t>'NORMALIZED_EXPORT_RCA'</t>
+  </si>
+  <si>
+    <t>'NORMALIZED_PCI'</t>
+  </si>
+  <si>
+    <t>'PCI'</t>
+  </si>
+  <si>
+    <t>'PRODUCT_ID'</t>
+  </si>
+  <si>
+    <t>'PRODUCT_LEVEL'</t>
+  </si>
+  <si>
+    <t>'YEAR'</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_COUNTRY_PRODUCT_YEAR_1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_COUNTRY_PRODUCT_YEAR_2</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_COUNTRY_PRODUCT_YEAR_4_2012_2016</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_PRODUCT_YEAR_1</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_PRODUCT_YEAR_2</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_PRODUCT_YEAR_4</t>
+  </si>
+  <si>
+    <t>RAW_HS12_COUNTRY_PRODUCT_YEAR_6</t>
+  </si>
+  <si>
+    <t>MBASUL250206</t>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +545,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +641,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -582,7 +679,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,6 +741,23 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1102,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,14 +1236,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="17" t="s">
         <v>90</v>
       </c>
@@ -1478,27 +1592,45 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="26" t="str">
+      <c r="A22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45698.529861111114</v>
+      </c>
+      <c r="D22" s="21">
+        <v>313</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="26" t="str">
+        <v>-16</v>
+      </c>
+      <c r="G22" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="26" t="str">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45698.774305555555</v>
+      </c>
+      <c r="D23" s="21">
+        <v>311</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="G23" s="26" t="str">
         <f t="shared" si="2"/>
@@ -1506,59 +1638,95 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="26" t="str">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45699.380555555559</v>
+      </c>
+      <c r="D24" s="21">
+        <v>299</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="26" t="str">
+        <v>-12</v>
+      </c>
+      <c r="G24" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="26" t="str">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45705.442361111112</v>
+      </c>
+      <c r="D25" s="21">
+        <v>287</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F25" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="26" t="str">
+        <v>-12</v>
+      </c>
+      <c r="G25" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="26" t="str">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45706.443749999999</v>
+      </c>
+      <c r="D26" s="21">
+        <v>273</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="26" t="str">
+        <v>-14</v>
+      </c>
+      <c r="G26" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="26" t="str">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45708.502083333333</v>
+      </c>
+      <c r="D27" s="21">
+        <v>270</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="26">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="26" t="str">
+        <v>-3</v>
+      </c>
+      <c r="G27" s="26">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,6 +1740,211 @@
       </c>
       <c r="G28" s="26" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45713.534722222219</v>
+      </c>
+      <c r="D29" s="21">
+        <v>400</v>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f t="shared" ref="E29:E42" si="3">IF(AND(ISNUMBER(C28), ISNUMBER(C29)), DAY(C29)-DAY(C28), "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" ref="F29:F42" si="4">IF(AND(ISNUMBER(D28), ISNUMBER(D29)), (D29-D28), "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" ref="G29:G42" si="5">IF(AND(ISNUMBER(E29), ISNUMBER(F29), E29&lt;&gt;0), F29/E29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F30" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G30" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F32" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G32" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G33" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G34" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G36" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F40" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1590,7 +1963,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,4 +3280,426 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D15E6-538C-4C71-B986-1FBD2827D701}">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="37" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112AD97-14D2-460E-9598-49957DB2A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A8BB9-E003-44BA-BA72-0D31521D629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6105" yWindow="3270" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
-    <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
-    <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId4"/>
-    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId5"/>
-    <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId6"/>
-    <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId7"/>
-    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId8"/>
+    <sheet name="Tabelle1" sheetId="10" r:id="rId3"/>
+    <sheet name="AoEC Files" sheetId="2" r:id="rId4"/>
+    <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId5"/>
+    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId6"/>
+    <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId7"/>
+    <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId8"/>
+    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="148">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -533,6 +534,30 @@
   </si>
   <si>
     <t>MBASUL250206</t>
+  </si>
+  <si>
+    <t>Beispieldaten</t>
+  </si>
+  <si>
+    <t>LAND_ISO3</t>
+  </si>
+  <si>
+    <t>PARTNR_ISO3</t>
+  </si>
+  <si>
+    <t>UMSATZ</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GBR</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1244,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,17 +1792,26 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="26" t="str">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45723.543749999997</v>
+      </c>
+      <c r="D30" s="21">
+        <v>261</v>
+      </c>
+      <c r="E30" s="26">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" s="26" t="str">
+        <v>-18</v>
+      </c>
+      <c r="F30" s="26">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" s="26" t="str">
+        <v>-139</v>
+      </c>
+      <c r="G30" s="26">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7.7222222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,6 +1992,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="39">
+        <v>747396442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="39">
+        <v>83123650514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="39">
+        <v>42573904600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="39">
+        <v>493218804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="39">
+        <v>608608308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="39">
+        <v>621366596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="39">
+        <v>90676046040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="39">
+        <v>874456220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="39">
+        <v>77796851248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="39">
+        <v>27815086838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="39">
+        <v>648662570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="39">
+        <v>49715750160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -2315,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0074CE0F-5763-4BFB-8F01-2031117045EC}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2512,7 +2712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE676B-1D24-4249-BF84-885166B1803C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -2572,7 +2772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2927,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0683C5D2-D6F6-4730-A866-0DB40C1E9CA5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -3282,7 +3482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D15E6-538C-4C71-B986-1FBD2827D701}">
   <dimension ref="A1:T8"/>
   <sheetViews>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A8BB9-E003-44BA-BA72-0D31521D629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF0238-F321-4171-98C1-127C3ED9BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="10" r:id="rId3"/>
-    <sheet name="AoEC Files" sheetId="2" r:id="rId4"/>
+    <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
+    <sheet name="AoEC-Dateien" sheetId="11" r:id="rId4"/>
     <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId5"/>
     <sheet name="Prod.vergleiche" sheetId="7" r:id="rId6"/>
     <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId7"/>
     <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId8"/>
     <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId9"/>
+    <sheet name="Tableau-Dta" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="164">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -558,6 +559,54 @@
   </si>
   <si>
     <t>GBR</t>
+  </si>
+  <si>
+    <t>MBASUL250317</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Size [Bytes]</t>
+  </si>
+  <si>
+    <t>Size [MBytes]</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_1.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_2.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_4_2012_2016.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_4_2017_2021.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_4_2022.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_6_2012_2016.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_6_2017_2021.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_country_product_year_6_2022.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_product_year_1.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_product_year_2.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_product_year_4.dta</t>
+  </si>
+  <si>
+    <t>hs12_country_product_year_6.dta</t>
   </si>
 </sst>
 </file>
@@ -704,7 +753,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -786,6 +835,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1239,759 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45684.762499999997</v>
-      </c>
-      <c r="D7" s="21">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="24">
-        <v>45678.63958333333</v>
-      </c>
-      <c r="C9" s="6">
-        <v>45678.63958333333</v>
-      </c>
-      <c r="D9" s="21">
-        <v>400</v>
-      </c>
-      <c r="E9" s="26" t="str">
-        <f>IF(AND(ISNUMBER(C8), ISNUMBER(C9)), DAY(C9)-DAY(C8), "")</f>
-        <v/>
-      </c>
-      <c r="F9" s="26" t="str">
-        <f>IF(AND(ISNUMBER(D8), ISNUMBER(D9)), (D9-D8), "")</f>
-        <v/>
-      </c>
-      <c r="G9" s="26" t="str">
-        <f>IF(AND(ISNUMBER(E9), ISNUMBER(F9), E9&lt;&gt;0), F9/E9, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="6">
-        <v>45680.461111111108</v>
-      </c>
-      <c r="D10" s="21">
-        <v>394</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" ref="E10:E28" si="0">IF(AND(ISNUMBER(C9), ISNUMBER(C10)), DAY(C10)-DAY(C9), "")</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="26">
-        <f t="shared" ref="F10:F28" si="1">IF(AND(ISNUMBER(D9), ISNUMBER(D10)), (D10-D9), "")</f>
-        <v>-6</v>
-      </c>
-      <c r="G10" s="26">
-        <f t="shared" ref="G10:G28" si="2">IF(AND(ISNUMBER(E10), ISNUMBER(F10), E10&lt;&gt;0), F10/E10, "")</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45684.763194444444</v>
-      </c>
-      <c r="D11" s="21">
-        <v>382</v>
-      </c>
-      <c r="E11" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45684.832638888889</v>
-      </c>
-      <c r="D12" s="21">
-        <v>382</v>
-      </c>
-      <c r="E12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45685.386805555558</v>
-      </c>
-      <c r="D13" s="21">
-        <v>376</v>
-      </c>
-      <c r="E13" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="26">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="G13" s="26">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45685.743750000001</v>
-      </c>
-      <c r="D14" s="21">
-        <v>371</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="G14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45685.819444444445</v>
-      </c>
-      <c r="D15" s="21">
-        <v>362</v>
-      </c>
-      <c r="E15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" si="1"/>
-        <v>-9</v>
-      </c>
-      <c r="G15" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="6">
-        <v>45686.387499999997</v>
-      </c>
-      <c r="D16" s="21">
-        <v>356</v>
-      </c>
-      <c r="E16" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="G16" s="26">
-        <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="6">
-        <v>45686.461111111108</v>
-      </c>
-      <c r="D17" s="21">
-        <v>356</v>
-      </c>
-      <c r="E17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45687.503472222219</v>
-      </c>
-      <c r="D18" s="21">
-        <v>346</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="1"/>
-        <v>-10</v>
-      </c>
-      <c r="G18" s="26">
-        <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45693.609722222223</v>
-      </c>
-      <c r="D19" s="21">
-        <v>345</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="0"/>
-        <v>-25</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45694.333333333336</v>
-      </c>
-      <c r="D20" s="21">
-        <v>337</v>
-      </c>
-      <c r="E20" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="G20" s="26">
-        <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="6">
-        <v>45694.72152777778</v>
-      </c>
-      <c r="D21" s="21">
-        <v>329</v>
-      </c>
-      <c r="E21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-      <c r="G21" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45698.529861111114</v>
-      </c>
-      <c r="D22" s="21">
-        <v>313</v>
-      </c>
-      <c r="E22" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F22" s="26">
-        <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="G22" s="26">
-        <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45698.774305555555</v>
-      </c>
-      <c r="D23" s="21">
-        <v>311</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="G23" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45699.380555555559</v>
-      </c>
-      <c r="D24" s="21">
-        <v>299</v>
-      </c>
-      <c r="E24" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="G24" s="26">
-        <f t="shared" si="2"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45705.442361111112</v>
-      </c>
-      <c r="D25" s="21">
-        <v>287</v>
-      </c>
-      <c r="E25" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F25" s="26">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="G25" s="26">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="6">
-        <v>45706.443749999999</v>
-      </c>
-      <c r="D26" s="21">
-        <v>273</v>
-      </c>
-      <c r="E26" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-      <c r="G26" s="26">
-        <f t="shared" si="2"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="6">
-        <v>45708.502083333333</v>
-      </c>
-      <c r="D27" s="21">
-        <v>270</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="G27" s="26">
-        <f t="shared" si="2"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="6">
-        <v>45713.534722222219</v>
-      </c>
-      <c r="D29" s="21">
-        <v>400</v>
-      </c>
-      <c r="E29" s="26" t="str">
-        <f t="shared" ref="E29:E42" si="3">IF(AND(ISNUMBER(C28), ISNUMBER(C29)), DAY(C29)-DAY(C28), "")</f>
-        <v/>
-      </c>
-      <c r="F29" s="26" t="str">
-        <f t="shared" ref="F29:F42" si="4">IF(AND(ISNUMBER(D28), ISNUMBER(D29)), (D29-D28), "")</f>
-        <v/>
-      </c>
-      <c r="G29" s="26" t="str">
-        <f t="shared" ref="G29:G42" si="5">IF(AND(ISNUMBER(E29), ISNUMBER(F29), E29&lt;&gt;0), F29/E29, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45723.543749999997</v>
-      </c>
-      <c r="D30" s="21">
-        <v>261</v>
-      </c>
-      <c r="E30" s="26">
-        <f t="shared" si="3"/>
-        <v>-18</v>
-      </c>
-      <c r="F30" s="26">
-        <f t="shared" si="4"/>
-        <v>-139</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="5"/>
-        <v>7.7222222222222223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F31" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G31" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F32" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G32" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F33" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F34" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F35" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F36" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F37" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G37" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F39" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F40" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F41" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G41" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F42" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G42" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2157,7 +1458,777 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45684.762499999997</v>
+      </c>
+      <c r="D7" s="21">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="24">
+        <v>45678.63958333333</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45678.63958333333</v>
+      </c>
+      <c r="D9" s="21">
+        <v>400</v>
+      </c>
+      <c r="E9" s="26" t="str">
+        <f>IF(AND(ISNUMBER(C8), ISNUMBER(C9)), DAY(C9)-DAY(C8), "")</f>
+        <v/>
+      </c>
+      <c r="F9" s="26" t="str">
+        <f>IF(AND(ISNUMBER(D8), ISNUMBER(D9)), (D9-D8), "")</f>
+        <v/>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f>IF(AND(ISNUMBER(E9), ISNUMBER(F9), E9&lt;&gt;0), F9/E9, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45680.461111111108</v>
+      </c>
+      <c r="D10" s="21">
+        <v>394</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" ref="E10:E28" si="0">IF(AND(ISNUMBER(C9), ISNUMBER(C10)), DAY(C10)-DAY(C9), "")</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" ref="F10:F28" si="1">IF(AND(ISNUMBER(D9), ISNUMBER(D10)), (D10-D9), "")</f>
+        <v>-6</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" ref="G10:G28" si="2">IF(AND(ISNUMBER(E10), ISNUMBER(F10), E10&lt;&gt;0), F10/E10, "")</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45684.763194444444</v>
+      </c>
+      <c r="D11" s="21">
+        <v>382</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45684.832638888889</v>
+      </c>
+      <c r="D12" s="21">
+        <v>382</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45685.386805555558</v>
+      </c>
+      <c r="D13" s="21">
+        <v>376</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45685.743750000001</v>
+      </c>
+      <c r="D14" s="21">
+        <v>371</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="G14" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45685.819444444445</v>
+      </c>
+      <c r="D15" s="21">
+        <v>362</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45686.387499999997</v>
+      </c>
+      <c r="D16" s="21">
+        <v>356</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="G16" s="26">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45686.461111111108</v>
+      </c>
+      <c r="D17" s="21">
+        <v>356</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45687.503472222219</v>
+      </c>
+      <c r="D18" s="21">
+        <v>346</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45693.609722222223</v>
+      </c>
+      <c r="D19" s="21">
+        <v>345</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45694.333333333336</v>
+      </c>
+      <c r="D20" s="21">
+        <v>337</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45694.72152777778</v>
+      </c>
+      <c r="D21" s="21">
+        <v>329</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="G21" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45698.529861111114</v>
+      </c>
+      <c r="D22" s="21">
+        <v>313</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45698.774305555555</v>
+      </c>
+      <c r="D23" s="21">
+        <v>311</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G23" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45699.380555555559</v>
+      </c>
+      <c r="D24" s="21">
+        <v>299</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45705.442361111112</v>
+      </c>
+      <c r="D25" s="21">
+        <v>287</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F25" s="26">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45706.443749999999</v>
+      </c>
+      <c r="D26" s="21">
+        <v>273</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45708.502083333333</v>
+      </c>
+      <c r="D27" s="21">
+        <v>270</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45713.534722222219</v>
+      </c>
+      <c r="D29" s="21">
+        <v>400</v>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f t="shared" ref="E29:E42" si="3">IF(AND(ISNUMBER(C28), ISNUMBER(C29)), DAY(C29)-DAY(C28), "")</f>
+        <v/>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" ref="F29:F42" si="4">IF(AND(ISNUMBER(D28), ISNUMBER(D29)), (D29-D28), "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" ref="G29:G42" si="5">IF(AND(ISNUMBER(E29), ISNUMBER(F29), E29&lt;&gt;0), F29/E29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45723.543749999997</v>
+      </c>
+      <c r="D30" s="21">
+        <v>261</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="3"/>
+        <v>-18</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" si="4"/>
+        <v>-139</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="5"/>
+        <v>7.7222222222222223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F31" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45733.71875</v>
+      </c>
+      <c r="D32" s="21">
+        <v>400</v>
+      </c>
+      <c r="E32" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F32" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G32" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45734.431944444441</v>
+      </c>
+      <c r="D33" s="21">
+        <v>399</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="G33" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G34" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G36" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F38" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F39" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F40" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -2511,6 +2582,180 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FADC2013-3BED-4616-AF0C-875612E9D4AF}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5C6D-7D2B-4A79-97CE-CC25C1EABB3F}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="43">
+        <v>82957084</v>
+      </c>
+      <c r="C2" s="44">
+        <f>B2/(1024*1024)</f>
+        <v>79.114040374755859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="43">
+        <v>407582404</v>
+      </c>
+      <c r="C3" s="44">
+        <f t="shared" ref="C3:C13" si="0">B3/(1024*1024)</f>
+        <v>388.70087051391602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1041363507</v>
+      </c>
+      <c r="C4" s="44">
+        <f t="shared" si="0"/>
+        <v>993.12163066864014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="43">
+        <v>1123907987</v>
+      </c>
+      <c r="C5" s="44">
+        <f t="shared" si="0"/>
+        <v>1071.8421812057495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="43">
+        <v>223126867</v>
+      </c>
+      <c r="C6" s="44">
+        <f t="shared" si="0"/>
+        <v>212.79036235809326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="43">
+        <v>2321016964</v>
+      </c>
+      <c r="C7" s="44">
+        <f t="shared" si="0"/>
+        <v>2213.4942665100098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="43">
+        <v>2500001692</v>
+      </c>
+      <c r="C8" s="44">
+        <f t="shared" si="0"/>
+        <v>2384.1874046325684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="43">
+        <v>495708604</v>
+      </c>
+      <c r="C9" s="44">
+        <f t="shared" si="0"/>
+        <v>472.74456405639648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="43">
+        <v>1343229</v>
+      </c>
+      <c r="C10" s="44">
+        <f t="shared" si="0"/>
+        <v>1.2810029983520508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="43">
+        <v>12400717</v>
+      </c>
+      <c r="C11" s="44">
+        <f t="shared" si="0"/>
+        <v>11.826245307922363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="43">
+        <v>211745849</v>
+      </c>
+      <c r="C12" s="44">
+        <f t="shared" si="0"/>
+        <v>201.93657779693604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="43">
+        <v>397749675</v>
+      </c>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
+        <v>379.32364940643311</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBF0238-F321-4171-98C1-127C3ED9BBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D866F-2E30-4F95-82F4-4D3F04B8402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
     <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
     <sheet name="AoEC-Dateien" sheetId="11" r:id="rId4"/>
-    <sheet name="HS92 Tab PRODUCT_COUNTRY_HS92" sheetId="3" r:id="rId5"/>
+    <sheet name="Ladeverfahren" sheetId="12" r:id="rId5"/>
     <sheet name="Prod.vergleiche" sheetId="7" r:id="rId6"/>
-    <sheet name="Tab PRODUCTS" sheetId="4" r:id="rId7"/>
-    <sheet name="Tab LOCATIONS" sheetId="8" r:id="rId8"/>
-    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId9"/>
-    <sheet name="Tableau-Dta" sheetId="10" r:id="rId10"/>
+    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId7"/>
+    <sheet name="Tableau-Dta" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="153">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -171,162 +169,6 @@
     <t>product_sitc.csv</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>name_short_en</t>
-  </si>
-  <si>
-    <t>English short name of product</t>
-  </si>
-  <si>
-    <t>product_level</t>
-  </si>
-  <si>
-    <t>One of [1, 2, 4, 6]</t>
-  </si>
-  <si>
-    <t>top_parent_id</t>
-  </si>
-  <si>
-    <t>product_id_hierarchy</t>
-  </si>
-  <si>
-    <t>country_id</t>
-  </si>
-  <si>
-    <t>Can be joined with the location _country  table within the classifications  dataset for more detailed information; Only applicable to country -partner-product-year tables</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Growth Lab assigned numerical product identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be joined with the product_hs92  table within the classifications  dataset for more detailed information  </t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Year of record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS records start at 1995  </t>
-  </si>
-  <si>
-    <t>export_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Current USD export value</t>
-  </si>
-  <si>
-    <t>import_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Current USD import value</t>
-  </si>
-  <si>
-    <t>eci</t>
-  </si>
-  <si>
-    <t>Economic Complexity Index computed usings HS product data</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>Variable applicable to the respective country-year, independent of individual product</t>
-  </si>
-  <si>
-    <t>coi</t>
-  </si>
-  <si>
-    <t>Complexity Outlook Index computed using HS product data</t>
-  </si>
-  <si>
-    <t>pci</t>
-  </si>
-  <si>
-    <t>Product Complexity Index</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Data Typ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes </t>
-  </si>
-  <si>
-    <t>United Nations Country M49 Codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be joined with the location _country  table within the classifications  dataset for more detailed information  </t>
-  </si>
-  <si>
-    <t>partner_country_id</t>
-  </si>
-  <si>
-    <t># Product_hs92 (2012)</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Growth Lab assigned numerical product identifier</t>
-  </si>
-  <si>
-    <t>code HS (1992) product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth Lab shortened version of official product name for display  </t>
-  </si>
-  <si>
-    <t>Level of specificity of the code in hierarchy</t>
-  </si>
-  <si>
-    <t>Product id of class containing code at the top of the hierarchy, or product level 1</t>
-  </si>
-  <si>
-    <t>Chain of product ids showing product hierarchy</t>
-  </si>
-  <si>
-    <t>HS (2012) product code</t>
-  </si>
-  <si>
-    <t>Growth Lab shortened version of official product name for display</t>
-  </si>
-  <si>
-    <t>product_ level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of [ 1, 2, 4, 6] </t>
-  </si>
-  <si>
-    <t>Product id of class containing code at the top of  the hierarchy, or product level 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Product_hs12 (2012)  </t>
-  </si>
-  <si>
-    <t>Tab PRODUCT_COUNTRY_COUNTRY_HS92</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -355,9 +197,6 @@
   </si>
   <si>
     <t>[#d]</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Produktvergleiche</t>
@@ -447,9 +286,6 @@
     <t>Kompression</t>
   </si>
   <si>
-    <t>Tab PRODUCT</t>
-  </si>
-  <si>
     <t>PARTNER_COUNTRY_ID'</t>
   </si>
   <si>
@@ -607,6 +443,226 @@
   </si>
   <si>
     <t>hs12_country_product_year_6.dta</t>
+  </si>
+  <si>
+    <t>Ladeverfahren</t>
+  </si>
+  <si>
+    <t>Attribute des Ladeverfahrens</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Erläuterung</t>
+  </si>
+  <si>
+    <t>Datenformat d. Quelldateien</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Î  {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.dta, .csv}</t>
+    </r>
+  </si>
+  <si>
+    <t>nur SN-Mittel</t>
+  </si>
+  <si>
+    <t>.csv</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Änderung d. Dateiformates notwendig</t>
+  </si>
+  <si>
+    <t>Datei im STATA-Format muss in CSV-Datei umgewandelt werden</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Aktionen</t>
+  </si>
+  <si>
+    <t>Ort d. Quelldateien</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Upload-Ziel</t>
+  </si>
+  <si>
+    <t>Upload zu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Î</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {Internal Stage, AWS}</t>
+    </r>
+  </si>
+  <si>
+    <t>Internal Stage</t>
+  </si>
+  <si>
+    <t>Lade-Funktion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Î</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {COPY, Python-Prg.}</t>
+    </r>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>COPY</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>schnellstes Verfahren (Dauer: Minuten)</t>
+  </si>
+  <si>
+    <t>Python-Prg.</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>externes Python-Programm CSV</t>
+  </si>
+  <si>
+    <t>externes Python-Programm STATA</t>
+  </si>
+  <si>
+    <t>.dta</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Erstellen d.Ziel- Tabellen</t>
+  </si>
+  <si>
+    <t>langsam (Stunden)</t>
+  </si>
+  <si>
+    <t>SN-internes Python-Programm CSV</t>
+  </si>
+  <si>
+    <t>SN-internes Python-Programm STATA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Î</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {PC, AWS, intern.Stage}</t>
+    </r>
+  </si>
+  <si>
+    <t>interner Stage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Î</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {SN-interner Stage, AWS}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Explizites Erstellen der Zieltabelle für jede Quelldatei erforderlich (RAW_...) </t>
   </si>
 </sst>
 </file>
@@ -619,7 +675,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,13 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="12"/>
@@ -708,8 +757,15 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="18"/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -717,12 +773,47 @@
     </font>
     <font>
       <b/>
-      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="1"/>
+      <charset val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -739,10 +830,197 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -753,7 +1031,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,25 +1050,7 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,38 +1067,148 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -1292,929 +1662,781 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="39">
-        <v>747396442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="39">
-        <v>83123650514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="39">
-        <v>42573904600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="39">
-        <v>493218804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="39">
-        <v>608608308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="39">
-        <v>621366596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="39">
-        <v>90676046040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="39">
-        <v>874456220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="39">
-        <v>77796851248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="39">
-        <v>27815086838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="39">
-        <v>648662570</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="39">
-        <v>49715750160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="17" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>88</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>45684.762499999997</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="24">
+        <v>37</v>
+      </c>
+      <c r="B9" s="18">
         <v>45678.63958333333</v>
       </c>
       <c r="C9" s="6">
         <v>45678.63958333333</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="15">
         <v>400</v>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="20" t="str">
         <f>IF(AND(ISNUMBER(C8), ISNUMBER(C9)), DAY(C9)-DAY(C8), "")</f>
         <v/>
       </c>
-      <c r="F9" s="26" t="str">
+      <c r="F9" s="20" t="str">
         <f>IF(AND(ISNUMBER(D8), ISNUMBER(D9)), (D9-D8), "")</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str">
+      <c r="G9" s="20" t="str">
         <f>IF(AND(ISNUMBER(E9), ISNUMBER(F9), E9&lt;&gt;0), F9/E9, "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>45680.461111111108</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <v>394</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <f t="shared" ref="E10:E28" si="0">IF(AND(ISNUMBER(C9), ISNUMBER(C10)), DAY(C10)-DAY(C9), "")</f>
         <v>2</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <f t="shared" ref="F10:F28" si="1">IF(AND(ISNUMBER(D9), ISNUMBER(D10)), (D10-D9), "")</f>
         <v>-6</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="20">
         <f t="shared" ref="G10:G28" si="2">IF(AND(ISNUMBER(E10), ISNUMBER(F10), E10&lt;&gt;0), F10/E10, "")</f>
         <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C11" s="6">
         <v>45684.763194444444</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="15">
         <v>382</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="20">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>45684.832638888889</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="15">
         <v>382</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="26" t="str">
+      <c r="G12" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>45685.386805555558</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="15">
         <v>376</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="20">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
         <v>45685.743750000001</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="15">
         <v>371</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>45685.819444444445</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="15">
         <v>362</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="G15" s="26" t="str">
+      <c r="G15" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>45686.387499999997</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="15">
         <v>356</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6">
         <v>45686.461111111108</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="15">
         <v>356</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="26" t="str">
+      <c r="G17" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>45687.503472222219</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="15">
         <v>346</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="20">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6">
         <v>45693.609722222223</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="15">
         <v>345</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="20">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6">
         <v>45694.333333333336</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="15">
         <v>337</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="20">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="20">
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6">
         <v>45694.72152777778</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="15">
         <v>329</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="20">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="G21" s="26" t="str">
+      <c r="G21" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>89</v>
+      <c r="A22" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="6">
         <v>45698.529861111114</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="15">
         <v>313</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="20">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="20">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6">
         <v>45698.774305555555</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="15">
         <v>311</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="20">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="G23" s="26" t="str">
+      <c r="G23" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6">
         <v>45699.380555555559</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="15">
         <v>299</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="20">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="20">
         <f t="shared" si="2"/>
         <v>-12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6">
         <v>45705.442361111112</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="15">
         <v>287</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="20">
         <f t="shared" si="1"/>
         <v>-12</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="20">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6">
         <v>45706.443749999999</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="15">
         <v>273</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="20">
         <f t="shared" si="1"/>
         <v>-14</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="20">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6">
         <v>45708.502083333333</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="15">
         <v>270</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="20">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="20">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="26" t="str">
+      <c r="E28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G28" s="26" t="str">
+      <c r="G28" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6">
         <v>45713.534722222219</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>400</v>
       </c>
-      <c r="E29" s="26" t="str">
+      <c r="E29" s="20" t="str">
         <f t="shared" ref="E29:E42" si="3">IF(AND(ISNUMBER(C28), ISNUMBER(C29)), DAY(C29)-DAY(C28), "")</f>
         <v/>
       </c>
-      <c r="F29" s="26" t="str">
+      <c r="F29" s="20" t="str">
         <f t="shared" ref="F29:F42" si="4">IF(AND(ISNUMBER(D28), ISNUMBER(D29)), (D29-D28), "")</f>
         <v/>
       </c>
-      <c r="G29" s="26" t="str">
+      <c r="G29" s="20" t="str">
         <f t="shared" ref="G29:G42" si="5">IF(AND(ISNUMBER(E29), ISNUMBER(F29), E29&lt;&gt;0), F29/E29, "")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C30" s="6">
         <v>45723.543749999997</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="15">
         <v>261</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="20">
         <f t="shared" si="3"/>
         <v>-18</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="20">
         <f t="shared" si="4"/>
         <v>-139</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="20">
         <f t="shared" si="5"/>
         <v>7.7222222222222223</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="26" t="str">
+      <c r="E31" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F31" s="26" t="str">
+      <c r="F31" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G31" s="26" t="str">
+      <c r="G31" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6">
         <v>45733.71875</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <v>400</v>
       </c>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="26" t="str">
+      <c r="F32" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C33" s="6">
         <v>45734.431944444441</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="15">
         <v>399</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="20">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="20">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="26" t="str">
+      <c r="A34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45735.76458333333</v>
+      </c>
+      <c r="D34" s="15">
+        <v>388</v>
+      </c>
+      <c r="E34" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F34" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" s="26" t="str">
+        <v>-11</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="26" t="str">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45736.383333333331</v>
+      </c>
+      <c r="D35" s="15">
+        <v>346</v>
+      </c>
+      <c r="E35" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F35" s="26" t="str">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" s="26" t="str">
+        <v>-42</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-42</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="26" t="str">
+      <c r="E36" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F36" s="26" t="str">
+      <c r="F36" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G36" s="26" t="str">
+      <c r="G36" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="26" t="str">
+      <c r="E37" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="26" t="str">
+      <c r="F37" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G37" s="26" t="str">
+      <c r="G37" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="26" t="str">
+      <c r="E38" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F38" s="26" t="str">
+      <c r="F38" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G38" s="26" t="str">
+      <c r="G38" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="26" t="str">
+      <c r="E39" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F39" s="26" t="str">
+      <c r="F39" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G39" s="26" t="str">
+      <c r="G39" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="26" t="str">
+      <c r="E40" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F40" s="26" t="str">
+      <c r="F40" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G40" s="26" t="str">
+      <c r="G40" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="26" t="str">
+      <c r="E41" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F41" s="26" t="str">
+      <c r="F41" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G41" s="26" t="str">
+      <c r="G41" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="26" t="str">
+      <c r="E42" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F42" s="26" t="str">
+      <c r="F42" s="20" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G42" s="26" t="str">
+      <c r="G42" s="20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -2242,7 +2464,7 @@
     <col min="1" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="11"/>
     <col min="4" max="4" width="18.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="30"/>
+    <col min="5" max="5" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2251,7 +2473,7 @@
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="29"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2267,27 +2489,27 @@
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>105</v>
+      <c r="E4" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2306,21 +2528,21 @@
       <c r="D7" s="9">
         <v>45678.459027777775</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="23">
         <f>F7/(1024*1024)</f>
         <v>53.288797378540039</v>
       </c>
       <c r="F7">
         <v>55877354</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="24">
         <f>IF(AND(ISNUMBER(C7),ISNUMBER(F7)), (1-E7/C7), "")</f>
         <v>0.71813939016236483</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11">
         <f>336702364/(1024*1024)</f>
@@ -2329,14 +2551,14 @@
       <c r="D8" s="9">
         <v>45678.459027777775</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="23">
         <f>F8/(1024*1024)</f>
         <v>64.618553161621094</v>
       </c>
       <c r="F8">
         <v>67757464</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="24">
         <f t="shared" ref="G8:G27" si="0">IF(AND(ISNUMBER(C8),ISNUMBER(F8)), (1-E8/C8), "")</f>
         <v>0.79876154359284512</v>
       </c>
@@ -2345,7 +2567,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="G9" s="31" t="str">
+      <c r="G9" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2354,7 +2576,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="G10" s="31" t="str">
+      <c r="G10" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2363,7 +2585,7 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="G11" s="31" t="str">
+      <c r="G11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2372,7 +2594,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="G12" s="31" t="str">
+      <c r="G12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2381,7 +2603,7 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="G13" s="31" t="str">
+      <c r="G13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2390,7 +2612,7 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="G14" s="31" t="str">
+      <c r="G14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2399,7 +2621,7 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="G15" s="31" t="str">
+      <c r="G15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2408,7 +2630,7 @@
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2420,18 +2642,18 @@
       <c r="D17" s="9">
         <v>45678.460416666669</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="23">
         <f>F17/(1024*1024)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="31" t="str">
+      <c r="G17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C18" s="11">
         <f>2599515729/(1024*1024)</f>
@@ -2440,20 +2662,20 @@
       <c r="D18" s="9">
         <v>45678.460416666669</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="23">
         <f>F18/(1024*1024)</f>
         <v>401.89046764373779</v>
       </c>
       <c r="F18">
         <v>421412699</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="24">
         <f t="shared" si="0"/>
         <v>0.83788799802257319</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="31" t="str">
+      <c r="G19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2471,7 +2693,7 @@
       <c r="D20" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G20" s="31" t="str">
+      <c r="G20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2486,7 +2708,7 @@
       <c r="D21" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G21" s="31" t="str">
+      <c r="G21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2501,7 +2723,7 @@
       <c r="D22" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G22" s="31" t="str">
+      <c r="G22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2519,7 +2741,7 @@
       <c r="D23" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G23" s="31" t="str">
+      <c r="G23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2537,7 +2759,7 @@
       <c r="D24" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G24" s="31" t="str">
+      <c r="G24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2552,7 +2774,7 @@
       <c r="D25" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G25" s="31" t="str">
+      <c r="G25" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2567,13 +2789,13 @@
       <c r="D26" s="9">
         <v>45678.463194444441</v>
       </c>
-      <c r="G26" s="31" t="str">
+      <c r="G26" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="31" t="str">
+      <c r="G27" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2590,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5C6D-7D2B-4A79-97CE-CC25C1EABB3F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2602,155 +2824,155 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>151</v>
+        <v>95</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="43">
+        <v>98</v>
+      </c>
+      <c r="B2" s="34">
         <v>82957084</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="35">
         <f>B2/(1024*1024)</f>
         <v>79.114040374755859</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="43">
+        <v>99</v>
+      </c>
+      <c r="B3" s="34">
         <v>407582404</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="35">
         <f t="shared" ref="C3:C13" si="0">B3/(1024*1024)</f>
         <v>388.70087051391602</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="43">
+        <v>100</v>
+      </c>
+      <c r="B4" s="34">
         <v>1041363507</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="35">
         <f t="shared" si="0"/>
         <v>993.12163066864014</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="43">
+        <v>101</v>
+      </c>
+      <c r="B5" s="34">
         <v>1123907987</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="35">
         <f t="shared" si="0"/>
         <v>1071.8421812057495</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="43">
+        <v>102</v>
+      </c>
+      <c r="B6" s="34">
         <v>223126867</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="35">
         <f t="shared" si="0"/>
         <v>212.79036235809326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="43">
+        <v>103</v>
+      </c>
+      <c r="B7" s="34">
         <v>2321016964</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="35">
         <f t="shared" si="0"/>
         <v>2213.4942665100098</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="43">
+        <v>104</v>
+      </c>
+      <c r="B8" s="34">
         <v>2500001692</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="35">
         <f t="shared" si="0"/>
         <v>2384.1874046325684</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="43">
+        <v>105</v>
+      </c>
+      <c r="B9" s="34">
         <v>495708604</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="35">
         <f t="shared" si="0"/>
         <v>472.74456405639648</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="43">
+        <v>106</v>
+      </c>
+      <c r="B10" s="34">
         <v>1343229</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="35">
         <f t="shared" si="0"/>
         <v>1.2810029983520508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="43">
+        <v>107</v>
+      </c>
+      <c r="B11" s="34">
         <v>12400717</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="35">
         <f t="shared" si="0"/>
         <v>11.826245307922363</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="43">
+        <v>108</v>
+      </c>
+      <c r="B12" s="34">
         <v>211745849</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="35">
         <f t="shared" si="0"/>
         <v>201.93657779693604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="43">
+        <v>109</v>
+      </c>
+      <c r="B13" s="34">
         <v>397749675</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="35">
         <f t="shared" si="0"/>
         <v>379.32364940643311</v>
       </c>
@@ -2761,198 +2983,500 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0074CE0F-5763-4BFB-8F01-2031117045EC}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F8BBA-8806-41EF-8979-2B592A349284}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="12"/>
-    <col min="4" max="4" width="46" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="6.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="37" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="12" t="str">
-        <f>UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>PARTNER_COUNTRY_ID      integer,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="12" t="str">
-        <f t="shared" ref="F7:F13" si="0">UPPER(A8)&amp;"      "&amp;LOWER(C8)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>YEAR      integer,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>EXPORT_VALUE      integer,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>IMPORT_VALUE      integer,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>ECI      float,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>COI      float,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>PCI      float,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="61">
+        <v>1</v>
+      </c>
+      <c r="E4" s="62">
+        <v>2</v>
+      </c>
+      <c r="F4" s="62">
+        <v>3</v>
+      </c>
+      <c r="G4" s="62">
+        <v>4</v>
+      </c>
+      <c r="H4" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>1</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>2</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>2</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
+        <v>3</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+    </row>
+    <row r="18" spans="1:8" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2967,48 +3491,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="28"/>
+    <col min="1" max="1" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>93</v>
+      <c r="A1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>94</v>
+      <c r="A4" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>100</v>
+      <c r="A7" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>101</v>
+      <c r="A8" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3018,716 +3542,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4062D-0CA4-46E2-8F7B-9239BC4F26C1}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" t="str">
-        <f>A6&amp;"      "&amp;LOWER(C6)&amp;","</f>
-        <v>product_id      integer,</v>
-      </c>
-      <c r="F6" t="str">
-        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-      <c r="G6" t="str">
-        <f>"StructField('"&amp;LOWER(A6)&amp;"', "&amp;PROPER(C6)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('product_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="0">A7&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>code      string,</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7:F11" si="1">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>CODE      string,</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G11" si="2">"StructField('"&amp;LOWER(A7)&amp;"', "&amp;PROPER(C7)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('code', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>name_short_en      string,</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>NAME_SHORT_EN      string,</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('name_short_en', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>product_level      integer,</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>PRODUCT_LEVEL      integer,</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('product_level', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>top_parent_id      integer,</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>TOP_PARENT_ID      integer,</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>product_id_hierarchy      string,</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>PRODUCT_ID_HIERARCHY      string,</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" t="str">
-        <f>A14&amp;"      "&amp;LOWER(C14)&amp;","</f>
-        <v>product_id      integer,</v>
-      </c>
-      <c r="F14" t="str">
-        <f>UPPER(A14)&amp;"      "&amp;LOWER(C14)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-      <c r="G14" t="str">
-        <f>"StructField('"&amp;LOWER(A14)&amp;"', "&amp;PROPER(C14)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('product_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" t="str">
-        <f t="shared" ref="E15:E19" si="3">A15&amp;"      "&amp;LOWER(C15)&amp;","</f>
-        <v>code      string,</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" ref="F15:F19" si="4">UPPER(A15)&amp;"      "&amp;LOWER(C15)&amp;","</f>
-        <v>CODE      string,</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ref="G15:G19" si="5">"StructField('"&amp;LOWER(A15)&amp;"', "&amp;PROPER(C15)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('code', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>name_short_en      string,</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="4"/>
-        <v>NAME_SHORT_EN      string,</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('name_short_en', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>product_ level      integer,</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="4"/>
-        <v>PRODUCT_ LEVEL      integer,</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('product_ level', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>top_parent_id      integer,</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="4"/>
-        <v>TOP_PARENT_ID      integer,</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>product_id_hierarchy      string,</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="4"/>
-        <v>PRODUCT_ID_HIERARCHY      string,</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0683C5D2-D6F6-4730-A866-0DB40C1E9CA5}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" t="str">
-        <f>A6&amp;"      "&amp;LOWER(C6)&amp;","</f>
-        <v>product_id      integer,</v>
-      </c>
-      <c r="F6" t="str">
-        <f>UPPER(A6)&amp;"      "&amp;LOWER(C6)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-      <c r="G6" t="str">
-        <f>"StructField('"&amp;LOWER(A6)&amp;"', "&amp;PROPER(C6)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('product_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="0">A7&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>code      string,</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7:F11" si="1">UPPER(A7)&amp;"      "&amp;LOWER(C7)&amp;","</f>
-        <v>CODE      string,</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G11" si="2">"StructField('"&amp;LOWER(A7)&amp;"', "&amp;PROPER(C7)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('code', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>name_short_en      string,</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>NAME_SHORT_EN      string,</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('name_short_en', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>product_level      integer,</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>PRODUCT_LEVEL      integer,</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('product_level', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>top_parent_id      integer,</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>TOP_PARENT_ID      integer,</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>product_id_hierarchy      string,</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>PRODUCT_ID_HIERARCHY      string,</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" t="str">
-        <f>A14&amp;"      "&amp;LOWER(C14)&amp;","</f>
-        <v>product_id      integer,</v>
-      </c>
-      <c r="F14" t="str">
-        <f>UPPER(A14)&amp;"      "&amp;LOWER(C14)&amp;","</f>
-        <v>PRODUCT_ID      integer,</v>
-      </c>
-      <c r="G14" t="str">
-        <f>"StructField('"&amp;LOWER(A14)&amp;"', "&amp;PROPER(C14)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('product_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" t="str">
-        <f t="shared" ref="E15:E19" si="3">A15&amp;"      "&amp;LOWER(C15)&amp;","</f>
-        <v>code      string,</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" ref="F15:F19" si="4">UPPER(A15)&amp;"      "&amp;LOWER(C15)&amp;","</f>
-        <v>CODE      string,</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ref="G15:G19" si="5">"StructField('"&amp;LOWER(A15)&amp;"', "&amp;PROPER(C15)&amp;"Type(), nullable=True),"</f>
-        <v>StructField('code', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="3"/>
-        <v>name_short_en      string,</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="4"/>
-        <v>NAME_SHORT_EN      string,</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('name_short_en', StringType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="3"/>
-        <v>product_ level      integer,</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="4"/>
-        <v>PRODUCT_ LEVEL      integer,</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('product_ level', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" t="str">
-        <f t="shared" si="3"/>
-        <v>top_parent_id      integer,</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="4"/>
-        <v>TOP_PARENT_ID      integer,</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('top_parent_id', IntegerType(), nullable=True),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v>product_id_hierarchy      string,</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="4"/>
-        <v>PRODUCT_ID_HIERARCHY      string,</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="5"/>
-        <v>StructField('product_id_hierarchy', StringType(), nullable=True),</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D15E6-538C-4C71-B986-1FBD2827D701}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -3758,390 +3572,556 @@
     <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="37" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>130</v>
+    <row r="1" spans="1:20" s="29" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39" t="s">
-        <v>132</v>
+      <c r="A2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39" t="s">
-        <v>132</v>
+      <c r="A3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39" t="s">
-        <v>132</v>
+      <c r="A4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T5" s="39" t="s">
-        <v>132</v>
+      <c r="A5" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>132</v>
+      <c r="A6" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>132</v>
+      <c r="A7" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" s="39" t="s">
-        <v>132</v>
+      <c r="A8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="31">
+        <v>747396442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="31">
+        <v>83123650514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="31">
+        <v>42573904600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="31">
+        <v>493218804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="31">
+        <v>608608308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31">
+        <v>621366596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="31">
+        <v>90676046040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="31">
+        <v>874456220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="31">
+        <v>77796851248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31">
+        <v>27815086838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="31">
+        <v>648662570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="31">
+        <v>49715750160</v>
       </c>
     </row>
   </sheetData>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D866F-2E30-4F95-82F4-4D3F04B8402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2A8A7-5047-428C-BDA9-3486CEC424B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="153">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -1031,7 +1031,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1092,122 +1092,113 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1666,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,14 +1675,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
@@ -2344,13 +2335,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="20" t="str">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45736.499305555553</v>
+      </c>
+      <c r="D36" s="15">
+        <v>324</v>
+      </c>
+      <c r="E36" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F36" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-22</v>
       </c>
       <c r="G36" s="20" t="str">
         <f t="shared" si="5"/>
@@ -2986,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F8BBA-8806-41EF-8979-2B592A349284}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2994,7 +2994,7 @@
   <cols>
     <col min="1" max="1" width="6.5703125" style="30" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="36" customWidth="1"/>
     <col min="4" max="8" width="20.7109375" style="31" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="30" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="30"/>
@@ -3005,473 +3005,442 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="71" t="s">
+    <row r="3" spans="1:8" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="1:8" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="61">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="57">
         <v>1</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="58">
         <v>2</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="58">
         <v>3</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="58">
         <v>4</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:8" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="62" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="62" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="30">
         <v>2</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="61" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="30">
         <v>3</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-    </row>
-    <row r="18" spans="1:8" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B2A8A7-5047-428C-BDA9-3486CEC424B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC76E7-538B-4724-9C89-46283DE49B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="161">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -663,6 +663,30 @@
   </si>
   <si>
     <t xml:space="preserve">Explizites Erstellen der Zieltabelle für jede Quelldatei erforderlich (RAW_...) </t>
+  </si>
+  <si>
+    <t>Benchmark für hs12_country_product_year_2</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Stage, intern</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Dauer [sec]</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1055,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1199,6 +1223,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1658,7 +1688,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,13 +2388,22 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="20" t="str">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45736.772916666669</v>
+      </c>
+      <c r="D37" s="15">
+        <v>288</v>
+      </c>
+      <c r="E37" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F37" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37" s="20">
         <f t="shared" si="4"/>
-        <v/>
+        <v>-36</v>
       </c>
       <c r="G37" s="20" t="str">
         <f t="shared" si="5"/>
@@ -2984,10 +3023,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F8BBA-8806-41EF-8979-2B592A349284}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3411,6 +3453,9 @@
       <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="C29" s="45"/>
       <c r="D29" s="61"/>
       <c r="E29" s="62"/>
@@ -3419,6 +3464,12 @@
       <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="C30" s="45"/>
       <c r="D30" s="61"/>
       <c r="E30" s="62"/>
@@ -3427,6 +3478,10 @@
       <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="31" t="s">
+        <v>158</v>
+      </c>
       <c r="C31" s="45"/>
       <c r="D31" s="61"/>
       <c r="E31" s="62"/>
@@ -3435,6 +3490,10 @@
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="72"/>
+      <c r="B32" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="C32" s="45"/>
       <c r="D32" s="61"/>
       <c r="E32" s="62"/>
@@ -3442,9 +3501,37 @@
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC76E7-538B-4724-9C89-46283DE49B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030F68E-121E-43D5-B194-EAC61D161B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-9870" yWindow="-14055" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
-    <sheet name="AoEC Files" sheetId="2" r:id="rId3"/>
-    <sheet name="AoEC-Dateien" sheetId="11" r:id="rId4"/>
-    <sheet name="Ladeverfahren" sheetId="12" r:id="rId5"/>
-    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId6"/>
-    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId7"/>
-    <sheet name="Tableau-Dta" sheetId="10" r:id="rId8"/>
+    <sheet name="Benchmark" sheetId="13" r:id="rId3"/>
+    <sheet name="AoEC Files" sheetId="2" r:id="rId4"/>
+    <sheet name="AoEC-Dateien" sheetId="11" r:id="rId5"/>
+    <sheet name="Ladeverfahren" sheetId="12" r:id="rId6"/>
+    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId7"/>
+    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId8"/>
+    <sheet name="Tableau-Dta" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -688,6 +689,87 @@
   <si>
     <t>Dauer [sec]</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>Æ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [$/d]</t>
+    </r>
+  </si>
+  <si>
+    <t>Benchmarks</t>
+  </si>
+  <si>
+    <t>Verfahren</t>
+  </si>
+  <si>
+    <t>Src</t>
+  </si>
+  <si>
+    <t>Trg</t>
+  </si>
+  <si>
+    <t>[mi:ss]</t>
+  </si>
+  <si>
+    <t>[sec]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPY </t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Python, SQLAlchemy</t>
+  </si>
+  <si>
+    <t>Notebook, SQLAlchemy</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Ausführung</t>
+  </si>
+  <si>
+    <t>#Rows</t>
+  </si>
+  <si>
+    <t>40:07</t>
+  </si>
+  <si>
+    <t>43:35</t>
+  </si>
+  <si>
+    <t>Chunksize</t>
+  </si>
+  <si>
+    <t>Warehouse [Cred/h]</t>
+  </si>
+  <si>
+    <t>39:11</t>
+  </si>
 </sst>
 </file>
 
@@ -699,7 +781,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +920,47 @@
       <name val="Aptos Narrow"/>
       <family val="1"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1055,7 +1178,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1212,6 +1335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,6 +1352,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,8 +1847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,14 +1866,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1735,6 +1896,9 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2411,45 +2575,72 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="20" t="str">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45740.453472222223</v>
+      </c>
+      <c r="D38" s="15">
+        <v>273</v>
+      </c>
+      <c r="E38" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F38" s="20" t="str">
+        <v>4</v>
+      </c>
+      <c r="F38" s="20">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G38" s="20" t="str">
+        <v>-15</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="20" t="str">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45741.414583333331</v>
+      </c>
+      <c r="D39" s="15">
+        <v>258</v>
+      </c>
+      <c r="E39" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F39" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G39" s="20" t="str">
+        <v>-15</v>
+      </c>
+      <c r="G39" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="20" t="str">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45742.443749999999</v>
+      </c>
+      <c r="D40" s="15">
+        <v>241</v>
+      </c>
+      <c r="E40" s="20">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F40" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G40" s="20" t="str">
+        <v>-17</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,6 +2681,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C41FD51-0CA1-4573-936F-5B7AC947B626}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="30"/>
+    <col min="4" max="4" width="11.28515625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="83"/>
+    <col min="8" max="9" width="11.42578125" style="80"/>
+    <col min="10" max="16384" width="11.42578125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="1:9" s="38" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="77">
+        <v>1</v>
+      </c>
+      <c r="E10" s="77">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="78">
+        <v>45741.670138888891</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="80">
+        <f>40*60+7</f>
+        <v>2407</v>
+      </c>
+      <c r="I10" s="80">
+        <v>5578124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="77">
+        <v>1</v>
+      </c>
+      <c r="E11" s="77">
+        <v>100000</v>
+      </c>
+      <c r="F11" s="78">
+        <v>45741.841666666667</v>
+      </c>
+      <c r="G11" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="80">
+        <f>43*60+35</f>
+        <v>2615</v>
+      </c>
+      <c r="I11" s="80">
+        <v>5578124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="77">
+        <v>4</v>
+      </c>
+      <c r="E12" s="77">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="78">
+        <v>45742.740277777775</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="80">
+        <v>2351</v>
+      </c>
+      <c r="I12" s="80">
+        <v>5578124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -2847,7 +3243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5C6D-7D2B-4A79-97CE-CC25C1EABB3F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3021,7 +3417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F8BBA-8806-41EF-8979-2B592A349284}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -3050,13 +3446,13 @@
     <row r="3" spans="1:8" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -3464,7 +3860,7 @@
       <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="73" t="s">
         <v>160</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -3478,7 +3874,7 @@
       <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="31" t="s">
         <v>158</v>
       </c>
@@ -3490,7 +3886,7 @@
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="31" t="s">
         <v>159</v>
       </c>
@@ -3502,7 +3898,7 @@
       <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -3516,7 +3912,7 @@
       <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="31" t="s">
         <v>156</v>
       </c>
@@ -3537,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE676B-1D24-4249-BF84-885166B1803C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -3597,7 +3993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D15E6-538C-4C71-B986-1FBD2827D701}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -4019,7 +4415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030F68E-121E-43D5-B194-EAC61D161B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8141B46-4E1E-4ACF-942C-910C3BEF0D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9870" yWindow="-14055" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="181">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -1336,9 +1336,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1352,42 +1388,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1847,9 +1847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,14 +1866,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
@@ -2644,9 +2644,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="20" t="str">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45743.451388888891</v>
+      </c>
+      <c r="E41" s="20">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F41" s="20" t="str">
         <f t="shared" si="4"/>
@@ -2658,9 +2664,18 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="20" t="str">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45745.740972222222</v>
+      </c>
+      <c r="D42" s="15">
+        <v>227</v>
+      </c>
+      <c r="E42" s="20">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F42" s="20" t="str">
         <f t="shared" si="4"/>
@@ -2684,19 +2699,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C41FD51-0CA1-4573-936F-5B7AC947B626}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="30"/>
-    <col min="4" max="4" width="11.28515625" style="77" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="83"/>
-    <col min="8" max="9" width="11.42578125" style="80"/>
+    <col min="4" max="4" width="11.28515625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="70" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="76"/>
+    <col min="8" max="9" width="11.42578125" style="73"/>
     <col min="10" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
@@ -2706,16 +2721,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -2727,32 +2742,32 @@
       <c r="C5" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="79" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
@@ -2797,23 +2812,23 @@
       <c r="C10" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="70">
         <v>1</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="70">
         <v>20000</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="71">
         <v>45741.670138888891</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="73">
         <f>40*60+7</f>
         <v>2407</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="73">
         <v>5578124</v>
       </c>
     </row>
@@ -2827,23 +2842,23 @@
       <c r="C11" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="70">
         <v>1</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="70">
         <v>100000</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="71">
         <v>45741.841666666667</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="73">
         <f>43*60+35</f>
         <v>2615</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="73">
         <v>5578124</v>
       </c>
     </row>
@@ -2857,22 +2872,22 @@
       <c r="C12" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="70">
         <v>4</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="70">
         <v>20000</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="71">
         <v>45742.740277777775</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="73">
         <v>2351</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="73">
         <v>5578124</v>
       </c>
     </row>
@@ -3446,13 +3461,13 @@
     <row r="3" spans="1:8" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -3860,7 +3875,7 @@
       <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="85" t="s">
         <v>160</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -3874,7 +3889,7 @@
       <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="31" t="s">
         <v>158</v>
       </c>
@@ -3886,7 +3901,7 @@
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="31" t="s">
         <v>159</v>
       </c>
@@ -3898,7 +3913,7 @@
       <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="86" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -3912,7 +3927,7 @@
       <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="31" t="s">
         <v>156</v>
       </c>

--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8141B46-4E1E-4ACF-942C-910C3BEF0D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD514985-AFD3-4E92-B7D4-B8C5C1FB118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13590" yWindow="-16395" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="6" r:id="rId2"/>
-    <sheet name="Benchmark" sheetId="13" r:id="rId3"/>
-    <sheet name="AoEC Files" sheetId="2" r:id="rId4"/>
-    <sheet name="AoEC-Dateien" sheetId="11" r:id="rId5"/>
-    <sheet name="Ladeverfahren" sheetId="12" r:id="rId6"/>
-    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId7"/>
-    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId8"/>
-    <sheet name="Tableau-Dta" sheetId="10" r:id="rId9"/>
+    <sheet name="Showcase-Files" sheetId="14" r:id="rId3"/>
+    <sheet name="Benchmark" sheetId="13" r:id="rId4"/>
+    <sheet name="AoEC Files" sheetId="2" r:id="rId5"/>
+    <sheet name="AoEC-Dateien" sheetId="11" r:id="rId6"/>
+    <sheet name="Ladeverfahren" sheetId="12" r:id="rId7"/>
+    <sheet name="Prod.vergleiche" sheetId="7" r:id="rId8"/>
+    <sheet name="Tab-Cols CCPY" sheetId="9" r:id="rId9"/>
+    <sheet name="Tableau-Dta" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="191">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -770,6 +771,36 @@
   <si>
     <t>39:11</t>
   </si>
+  <si>
+    <t>Dateiname</t>
+  </si>
+  <si>
+    <t>dat2csv.py</t>
+  </si>
+  <si>
+    <t>hs12.statistics.csv.set_A.upload.bat</t>
+  </si>
+  <si>
+    <t>Nur für Teilmenge der Dateien mit Statistikdaten</t>
+  </si>
+  <si>
+    <t>hs12.statistics.csv.set_A.upload.sql</t>
+  </si>
+  <si>
+    <t>hs12.statistics.dat.all.upload.bat</t>
+  </si>
+  <si>
+    <t>hs12.statistics.dat.all.upload.sql</t>
+  </si>
+  <si>
+    <t>dmas_setup.DB.sql</t>
+  </si>
+  <si>
+    <t>dmas_setup.Tables.sql</t>
+  </si>
+  <si>
+    <t>Pfad</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +812,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,8 +993,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,8 +1033,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1172,13 +1235,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1368,6 +1472,27 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1843,13 +1968,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="31">
+        <v>747396442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="31">
+        <v>83123650514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="31">
+        <v>42573904600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="31">
+        <v>493218804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="31">
+        <v>608608308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31">
+        <v>621366596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="31">
+        <v>90676046040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="31">
+        <v>874456220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="31">
+        <v>77796851248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31">
+        <v>27815086838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="31">
+        <v>648662570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="31">
+        <v>49715750160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89679D8-46CC-45FA-8B9C-7BCB4E9F97A6}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,14 +2157,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="12" t="s">
         <v>38</v>
       </c>
@@ -2683,6 +2974,242 @@
       </c>
       <c r="G42" s="20" t="str">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45747.431250000001</v>
+      </c>
+      <c r="D43" s="15">
+        <v>226</v>
+      </c>
+      <c r="E43" s="20">
+        <f t="shared" ref="E43:E55" si="6">IF(AND(ISNUMBER(C42), ISNUMBER(C43)), DAY(C43)-DAY(C42), "")</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="20">
+        <f t="shared" ref="F43:F55" si="7">IF(AND(ISNUMBER(D42), ISNUMBER(D43)), (D43-D42), "")</f>
+        <v>-1</v>
+      </c>
+      <c r="G43" s="20">
+        <f t="shared" ref="G43:G55" si="8">IF(AND(ISNUMBER(E43), ISNUMBER(F43), E43&lt;&gt;0), F43/E43, "")</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45748.365277777775</v>
+      </c>
+      <c r="D44" s="15">
+        <v>186</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="F44" s="20">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="6">
+        <v>45754.439583333333</v>
+      </c>
+      <c r="D45" s="15">
+        <v>152</v>
+      </c>
+      <c r="E45" s="20">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F45" s="20">
+        <f t="shared" si="7"/>
+        <v>-34</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" si="8"/>
+        <v>-5.666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45755.522222222222</v>
+      </c>
+      <c r="D46" s="15">
+        <v>143</v>
+      </c>
+      <c r="E46" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="20">
+        <f t="shared" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="G46" s="20">
+        <f t="shared" si="8"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45756.32708333333</v>
+      </c>
+      <c r="D47" s="15">
+        <v>129</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <f t="shared" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="8"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45757.381944444445</v>
+      </c>
+      <c r="D48" s="15">
+        <v>116</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F49" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G49" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G50" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F51" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G51" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F52" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G52" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F53" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G53" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F54" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G54" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F55" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G55" s="20" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2696,6 +3223,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78A304C-3404-42F9-AB29-058D06A6862A}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="83"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="83"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="83"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="83"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C41FD51-0CA1-4573-936F-5B7AC947B626}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2721,15 +3337,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
@@ -2900,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBB8708-1065-49C3-A515-99C0D7D6B067}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -3258,7 +3874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DA5C6D-7D2B-4A79-97CE-CC25C1EABB3F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3432,7 +4048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613F8BBA-8806-41EF-8979-2B592A349284}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -3461,13 +4077,13 @@
     <row r="3" spans="1:8" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -3875,7 +4491,7 @@
       <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="92" t="s">
         <v>160</v>
       </c>
       <c r="B30" s="31" t="s">
@@ -3889,7 +4505,7 @@
       <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="31" t="s">
         <v>158</v>
       </c>
@@ -3901,7 +4517,7 @@
       <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="31" t="s">
         <v>159</v>
       </c>
@@ -3913,7 +4529,7 @@
       <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="93" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -3927,7 +4543,7 @@
       <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="31" t="s">
         <v>156</v>
       </c>
@@ -3948,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE676B-1D24-4249-BF84-885166B1803C}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -4008,7 +4624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67D15E6-538C-4C71-B986-1FBD2827D701}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -4428,170 +5044,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55FCAF5-7C9D-447F-A170-5465EBE0C70D}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="31">
-        <v>747396442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="31">
-        <v>83123650514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="31">
-        <v>42573904600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="31">
-        <v>493218804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="31">
-        <v>608608308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="31">
-        <v>621366596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="31">
-        <v>90676046040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="31">
-        <v>874456220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="31">
-        <v>77796851248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="31">
-        <v>27815086838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="31">
-        <v>648662570</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="31">
-        <v>49715750160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DMAS.AEC/dmas.xlsx
+++ b/DMAS.AEC/dmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balzer\Documents\Projekte\Sulzer\UserStories_Sulzer\DMAS\DMAS.AEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD514985-AFD3-4E92-B7D4-B8C5C1FB118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180198C7-B5FC-4BE2-A212-FD6E87A747AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
+    <workbookView xWindow="15210" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{3E5298F4-EF1C-432F-A09B-410E450AC794}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="191">
   <si>
     <t>DMAS - Meilensteine</t>
   </si>
@@ -2140,7 +2140,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,21 +3115,30 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="20" t="str">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45762.478472222225</v>
+      </c>
+      <c r="D49" s="15">
+        <v>108</v>
+      </c>
+      <c r="E49" s="20">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F49" s="20" t="str">
+        <v>5</v>
+      </c>
+      <c r="F49" s="20">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G49" s="20" t="str">
+        <v>-8</v>
+      </c>
+      <c r="G49" s="20">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E50" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3143,7 +3152,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E51" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3157,7 +3166,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E52" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3171,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E53" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3185,7 +3194,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E54" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3199,7 +3208,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E55" s="20" t="str">
         <f t="shared" si="6"/>
         <v/>
